--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,40 +1,1337 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amonguszmod\TheOtherRoles-MR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1822664-3885-4028-96BB-9F5F6AAC1474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6120" yWindow="405" windowWidth="21600" windowHeight="8805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Roleinfo" sheetId="1" r:id="rId1"/>
+    <sheet name="customOption" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="412">
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Latam</t>
+  </si>
+  <si>
+    <t>Brazilian</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>SChinese</t>
+  </si>
+  <si>
+    <t>TChinese</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>jestername</t>
+  </si>
+  <si>
+    <t>Jester</t>
+  </si>
+  <si>
+    <t>小丑</t>
+  </si>
+  <si>
+    <t>mayorname</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>市长</t>
+  </si>
+  <si>
+    <t>portalmakername</t>
+  </si>
+  <si>
+    <t>Portalmaker</t>
+  </si>
+  <si>
+    <t>掌门师</t>
+  </si>
+  <si>
+    <t>engineername</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>工程师</t>
+  </si>
+  <si>
+    <t>sheriffname</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
+    <t>警长</t>
+  </si>
+  <si>
+    <t>deputyname</t>
+  </si>
+  <si>
+    <t>Deputy</t>
+  </si>
+  <si>
+    <t>副手</t>
+  </si>
+  <si>
+    <t>lightername</t>
+  </si>
+  <si>
+    <t>Lighter</t>
+  </si>
+  <si>
+    <t>持灯人</t>
+  </si>
+  <si>
+    <t>godfathername</t>
+  </si>
+  <si>
+    <t>Godfather</t>
+  </si>
+  <si>
+    <t>教父</t>
+  </si>
+  <si>
+    <t>mafiosoname</t>
+  </si>
+  <si>
+    <t>Mafioso</t>
+  </si>
+  <si>
+    <t>黑手党</t>
+  </si>
+  <si>
+    <t>janitorname</t>
+  </si>
+  <si>
+    <t>Janitor</t>
+  </si>
+  <si>
+    <t>清洁工</t>
+  </si>
+  <si>
+    <t>morphlingname</t>
+  </si>
+  <si>
+    <t>Morphling</t>
+  </si>
+  <si>
+    <t>进化人</t>
+  </si>
+  <si>
+    <t>camouflagername</t>
+  </si>
+  <si>
+    <t>Camouflager</t>
+  </si>
+  <si>
+    <t>伪装师</t>
+  </si>
+  <si>
+    <t>evilhackername</t>
+  </si>
+  <si>
+    <t>EvilHacker</t>
+  </si>
+  <si>
+    <t>邪恶黑客</t>
+  </si>
+  <si>
+    <t>vampirename</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+  </si>
+  <si>
+    <t>erasername</t>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>记忆抹除师</t>
+  </si>
+  <si>
+    <t>trickstername</t>
+  </si>
+  <si>
+    <t>Trickster</t>
+  </si>
+  <si>
+    <t>捣蛋鬼</t>
+  </si>
+  <si>
+    <t>cleanername</t>
+  </si>
+  <si>
+    <t>Cleaner</t>
+  </si>
+  <si>
+    <t>保洁员</t>
+  </si>
+  <si>
+    <t>warlockname</t>
+  </si>
+  <si>
+    <t>Warlock</t>
+  </si>
+  <si>
+    <t>巫师</t>
+  </si>
+  <si>
+    <t>bountyhuntername</t>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+  </si>
+  <si>
+    <t>赏金猎人</t>
+  </si>
+  <si>
+    <t>detectivename</t>
+  </si>
+  <si>
+    <t>Detective</t>
+  </si>
+  <si>
+    <t>侦探</t>
+  </si>
+  <si>
+    <t>timemastername</t>
+  </si>
+  <si>
+    <t>Time Master</t>
+  </si>
+  <si>
+    <t>时王</t>
+  </si>
+  <si>
+    <t>medicname</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>护士</t>
+  </si>
+  <si>
+    <t>shiftername</t>
+  </si>
+  <si>
+    <t>Shifter</t>
+  </si>
+  <si>
+    <t>传送师</t>
+  </si>
+  <si>
+    <t>swappername</t>
+  </si>
+  <si>
+    <t>Swapper</t>
+  </si>
+  <si>
+    <t>交换者</t>
+  </si>
+  <si>
+    <t>seername</t>
+  </si>
+  <si>
+    <t>Seer</t>
+  </si>
+  <si>
+    <t>先知</t>
+  </si>
+  <si>
+    <t>hackername</t>
+  </si>
+  <si>
+    <t>Hacker</t>
+  </si>
+  <si>
+    <t>黑客</t>
+  </si>
+  <si>
+    <t>trackername</t>
+  </si>
+  <si>
+    <t>Tracker</t>
+  </si>
+  <si>
+    <t>追踪者</t>
+  </si>
+  <si>
+    <t>snitchname</t>
+  </si>
+  <si>
+    <t>Snitch</t>
+  </si>
+  <si>
+    <t>密探</t>
+  </si>
+  <si>
+    <t>jackalname</t>
+  </si>
+  <si>
+    <t>Jackal</t>
+  </si>
+  <si>
+    <t>豺狼</t>
+  </si>
+  <si>
+    <t>sidekickname</t>
+  </si>
+  <si>
+    <t>Sidekick</t>
+  </si>
+  <si>
+    <t>掌局人</t>
+  </si>
+  <si>
+    <t>spyname</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
+    <t>间谍</t>
+  </si>
+  <si>
+    <t>securityguardname</t>
+  </si>
+  <si>
+    <t>Security Guard</t>
+  </si>
+  <si>
+    <t>警卫</t>
+  </si>
+  <si>
+    <t>arsonistname</t>
+  </si>
+  <si>
+    <t>Arsonist</t>
+  </si>
+  <si>
+    <t>纵火犯</t>
+  </si>
+  <si>
+    <t>niceguessername</t>
+  </si>
+  <si>
+    <t>Nice Guesser</t>
+  </si>
+  <si>
+    <t>正义的赌怪</t>
+  </si>
+  <si>
+    <t>evilguessername</t>
+  </si>
+  <si>
+    <t>Evil Guesser</t>
+  </si>
+  <si>
+    <t>邪恶的赌怪</t>
+  </si>
+  <si>
+    <t>vulturename</t>
+  </si>
+  <si>
+    <t>Vulture</t>
+  </si>
+  <si>
+    <t>秃鹫</t>
+  </si>
+  <si>
+    <t>mediumname</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>灵媒</t>
+  </si>
+  <si>
+    <t>madmatename</t>
+  </si>
+  <si>
+    <t>Madmate</t>
+  </si>
+  <si>
+    <t>叛徒</t>
+  </si>
+  <si>
+    <t>lawyername</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>律师</t>
+  </si>
+  <si>
+    <t>pursuername</t>
+  </si>
+  <si>
+    <t>Pursuer</t>
+  </si>
+  <si>
+    <t>追求之人</t>
+  </si>
+  <si>
+    <t>impostorname</t>
+  </si>
+  <si>
+    <t>Impostor</t>
+  </si>
+  <si>
+    <t>内鬼</t>
+  </si>
+  <si>
+    <t>crewmatename</t>
+  </si>
+  <si>
+    <t>Crewmate</t>
+  </si>
+  <si>
+    <t>船员</t>
+  </si>
+  <si>
+    <t>witchname</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>女巫</t>
+  </si>
+  <si>
+    <t>ninjaname</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>忍者</t>
+  </si>
+  <si>
+    <t>yasunaname</t>
+  </si>
+  <si>
+    <t>Yasuna</t>
+  </si>
+  <si>
+    <t>安娜</t>
+  </si>
+  <si>
+    <t>evilyasunaname</t>
+  </si>
+  <si>
+    <t>Evil Yasuna</t>
+  </si>
+  <si>
+    <t>邪恶安娜</t>
+  </si>
+  <si>
+    <t>taskmastername</t>
+  </si>
+  <si>
+    <t>Task Master</t>
+  </si>
+  <si>
+    <t>任务大师</t>
+  </si>
+  <si>
+    <t>doorhackername</t>
+  </si>
+  <si>
+    <t>DoorHacker</t>
+  </si>
+  <si>
+    <t>门客</t>
+  </si>
+  <si>
+    <t>kataomoiname</t>
+  </si>
+  <si>
+    <t>Kataomoi</t>
+  </si>
+  <si>
+    <t>卡塔莫伊</t>
+  </si>
+  <si>
+    <t>killercreatorname</t>
+  </si>
+  <si>
+    <t>Killer Creator</t>
+  </si>
+  <si>
+    <t>暗杀大师</t>
+  </si>
+  <si>
+    <t>madmatekillername</t>
+  </si>
+  <si>
+    <t>Madmate Killer</t>
+  </si>
+  <si>
+    <t>叛徒杀手</t>
+  </si>
+  <si>
+    <t>taskracername</t>
+  </si>
+  <si>
+    <t>Task Racer</t>
+  </si>
+  <si>
+    <t>任务竞赛者</t>
+  </si>
+  <si>
+    <t>bloodyname</t>
+  </si>
+  <si>
+    <t>Bloody</t>
+  </si>
+  <si>
+    <t>血魔</t>
+  </si>
+  <si>
+    <t>antitpname</t>
+  </si>
+  <si>
+    <t>Anti tp</t>
+  </si>
+  <si>
+    <t>抗生素</t>
+  </si>
+  <si>
+    <t>tiebreakername</t>
+  </si>
+  <si>
+    <t>Tiebreaker</t>
+  </si>
+  <si>
+    <t>破局者</t>
+  </si>
+  <si>
+    <t>baitname</t>
+  </si>
+  <si>
+    <t>Bait</t>
+  </si>
+  <si>
+    <t>诱饵</t>
+  </si>
+  <si>
+    <t>sunglassesname</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>墨镜</t>
+  </si>
+  <si>
+    <t>lovername</t>
+  </si>
+  <si>
+    <t>Lover</t>
+  </si>
+  <si>
+    <t>恋人</t>
+  </si>
+  <si>
+    <t>mininame</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>迷你人</t>
+  </si>
+  <si>
+    <t>vipname</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>VIP客户</t>
+  </si>
+  <si>
+    <t>invertname</t>
+  </si>
+  <si>
+    <t>Invert</t>
+  </si>
+  <si>
+    <t>反转者</t>
+  </si>
+  <si>
+    <t>jesterintroDescription</t>
+  </si>
+  <si>
+    <t>Get voted out</t>
+  </si>
+  <si>
+    <t>让其他人投票给你</t>
+  </si>
+  <si>
+    <t>mayorintroDescription</t>
+  </si>
+  <si>
+    <t>Your vote counts twice</t>
+  </si>
+  <si>
+    <t>portalmakerintroDescription</t>
+  </si>
+  <si>
+    <t>You can create portals</t>
+  </si>
+  <si>
+    <t>engineerintroDescription</t>
+  </si>
+  <si>
+    <t>Maintain important systems on the ship</t>
+  </si>
+  <si>
+    <t>sheriffintroDescription</t>
+  </si>
+  <si>
+    <t>Shoot the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>deputyintroDescription</t>
+  </si>
+  <si>
+    <t>Handcuff the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>lighterintroDescription</t>
+  </si>
+  <si>
+    <t>Your light never goes out</t>
+  </si>
+  <si>
+    <t>godfatherintroDescription</t>
+  </si>
+  <si>
+    <t>Kill all Crewmates</t>
+  </si>
+  <si>
+    <t>mafiosointroDescription</t>
+  </si>
+  <si>
+    <t>Work with the &lt;color=#FF1919FF&gt;Mafia&lt;/color&gt; to kill the Crewmates</t>
+  </si>
+  <si>
+    <t>janitorintroDescription</t>
+  </si>
+  <si>
+    <t>Work with the &lt;color=#FF1919FF&gt;Mafia&lt;/color&gt; by hiding dead bodies</t>
+  </si>
+  <si>
+    <t>morphlingintroDescription</t>
+  </si>
+  <si>
+    <t>Change your look to not get caught</t>
+  </si>
+  <si>
+    <t>camouflagerintroDescription</t>
+  </si>
+  <si>
+    <t>Camouflage and kill the Crewmates</t>
+  </si>
+  <si>
+    <t>evilhackerintroDescription</t>
+  </si>
+  <si>
+    <t>Hack systems and kill the Crewmates</t>
+  </si>
+  <si>
+    <t>vampireintroDescription</t>
+  </si>
+  <si>
+    <t>Kill the Crewmates with your bites</t>
+  </si>
+  <si>
+    <t>eraserintroDescription</t>
+  </si>
+  <si>
+    <t>Kill the Crewmates and erase their roles</t>
+  </si>
+  <si>
+    <t>tricksterintroDescription</t>
+  </si>
+  <si>
+    <t>Use your jack-in-the-boxes to surprise others</t>
+  </si>
+  <si>
+    <t>cleanerintroDescription</t>
+  </si>
+  <si>
+    <t>Kill everyone and leave no traces</t>
+  </si>
+  <si>
+    <t>warlockintroDescription</t>
+  </si>
+  <si>
+    <t>Curse other players and kill everyone</t>
+  </si>
+  <si>
+    <t>bountyhunterintroDescription</t>
+  </si>
+  <si>
+    <t>Hunt your bounty down</t>
+  </si>
+  <si>
+    <t>detectiveintroDescription</t>
+  </si>
+  <si>
+    <t>Find the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt; by examining footprints</t>
+  </si>
+  <si>
+    <t>timemasterintroDescription</t>
+  </si>
+  <si>
+    <t>Save yourself with your time shield", "Use your time shield</t>
+  </si>
+  <si>
+    <t>medicintroDescription</t>
+  </si>
+  <si>
+    <t>Protect someone with your shield</t>
+  </si>
+  <si>
+    <t>shifterintroDescription</t>
+  </si>
+  <si>
+    <t>Shift your role</t>
+  </si>
+  <si>
+    <t>swapperintroDescription</t>
+  </si>
+  <si>
+    <t>Swap votes to exile the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>seerintroDescription</t>
+  </si>
+  <si>
+    <t>You will see players die</t>
+  </si>
+  <si>
+    <t>hackerintroDescription</t>
+  </si>
+  <si>
+    <t>Hack systems to find the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>trackerintroDescription</t>
+  </si>
+  <si>
+    <t>Track the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt; down</t>
+  </si>
+  <si>
+    <t>snitchintroDescription</t>
+  </si>
+  <si>
+    <t>Finish your tasks to find the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>jackalintroDescription</t>
+  </si>
+  <si>
+    <t>Kill all Crewmates and &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt; to win</t>
+  </si>
+  <si>
+    <t>sidekickintroDescription</t>
+  </si>
+  <si>
+    <t>Help your Jackal to kill everyone</t>
+  </si>
+  <si>
+    <t>spyintroDescription</t>
+  </si>
+  <si>
+    <t>Confuse the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>securityguardintroDescription</t>
+  </si>
+  <si>
+    <t>Seal vents and place cameras</t>
+  </si>
+  <si>
+    <t>arsonistintroDescription</t>
+  </si>
+  <si>
+    <t>Let them burn</t>
+  </si>
+  <si>
+    <t>niceguesserintroDescription</t>
+  </si>
+  <si>
+    <t>Guess and shoot</t>
+  </si>
+  <si>
+    <t>evilguesserintroDescription</t>
+  </si>
+  <si>
+    <t>vultureintroDescription</t>
+  </si>
+  <si>
+    <t>Eat corpses to win</t>
+  </si>
+  <si>
+    <t>mediumintroDescription</t>
+  </si>
+  <si>
+    <t>Question the souls of the dead to gain informations</t>
+  </si>
+  <si>
+    <t>madmateintroDescription</t>
+  </si>
+  <si>
+    <t>Help the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>lawyerintroDescription</t>
+  </si>
+  <si>
+    <t>Defend your client</t>
+  </si>
+  <si>
+    <t>pursuerintroDescription</t>
+  </si>
+  <si>
+    <t>Blank the Impostors</t>
+  </si>
+  <si>
+    <t>impostorintroDescription</t>
+  </si>
+  <si>
+    <t>Sabotage and kill everyone</t>
+  </si>
+  <si>
+    <t>crewmateintroDescription</t>
+  </si>
+  <si>
+    <t>Find the Impostors</t>
+  </si>
+  <si>
+    <t>witchintroDescription</t>
+  </si>
+  <si>
+    <t>Cast a spell upon your foes</t>
+  </si>
+  <si>
+    <t>ninjaintroDescription</t>
+  </si>
+  <si>
+    <t>Surprise and assassinate your foes</t>
+  </si>
+  <si>
+    <t>yasunaintroDescription</t>
+  </si>
+  <si>
+    <t>Exile suspicious crewmates.</t>
+  </si>
+  <si>
+    <t>evilYasunaintroDescription</t>
+  </si>
+  <si>
+    <t>Exile smart crewmates.</t>
+  </si>
+  <si>
+    <t>taskMasterintroDescription</t>
+  </si>
+  <si>
+    <t>Complete all extra tasks to lead\ncrewmate's team to victory.</t>
+  </si>
+  <si>
+    <t>doorHackerintroDescription</t>
+  </si>
+  <si>
+    <t>Slip through the door and cover your tracks.</t>
+  </si>
+  <si>
+    <t>kataomoiintroDescription</t>
+  </si>
+  <si>
+    <t>Become one with your unrequited love.</t>
+  </si>
+  <si>
+    <t>killerCreatorintroDescription</t>
+  </si>
+  <si>
+    <t>Make a Madmate Killer.</t>
+  </si>
+  <si>
+    <t>madmateKillerintroDescription</t>
+  </si>
+  <si>
+    <t>If Impostor dies, kill the Crewmates.</t>
+  </si>
+  <si>
+    <t>taskRacerintroDescription</t>
+  </si>
+  <si>
+    <t>Finish the task before everyone\nelse and aim for 1st!</t>
+  </si>
+  <si>
+    <t>bloodyintroDescription</t>
+  </si>
+  <si>
+    <t>Your killer leaves a bloody trail</t>
+  </si>
+  <si>
+    <t>antitpintroDescription</t>
+  </si>
+  <si>
+    <t>You will not get teleported</t>
+  </si>
+  <si>
+    <t>tiebreakerintroDescription</t>
+  </si>
+  <si>
+    <t>Your vote break the tie</t>
+  </si>
+  <si>
+    <t>baitintroDescription</t>
+  </si>
+  <si>
+    <t>Bait your enemies</t>
+  </si>
+  <si>
+    <t>sunglassesintroDescription</t>
+  </si>
+  <si>
+    <t>You got the sunglasses</t>
+  </si>
+  <si>
+    <t>loverintroDescription</t>
+  </si>
+  <si>
+    <t>You are in love</t>
+  </si>
+  <si>
+    <t>miniintroDescription</t>
+  </si>
+  <si>
+    <t>No one will harm you until you grow up</t>
+  </si>
+  <si>
+    <t>vipintroDescription</t>
+  </si>
+  <si>
+    <t>You are the VIP</t>
+  </si>
+  <si>
+    <t>invertintroDescription</t>
+  </si>
+  <si>
+    <t>Your movement is inverted</t>
+  </si>
+  <si>
+    <t>jestershortdescription</t>
+  </si>
+  <si>
+    <t>mayorshortdescription</t>
+  </si>
+  <si>
+    <t>portalmakershortdescription</t>
+  </si>
+  <si>
+    <t>engineershortdescription</t>
+  </si>
+  <si>
+    <t>Repair the ship</t>
+  </si>
+  <si>
+    <t>sheriffshortdescription</t>
+  </si>
+  <si>
+    <t>Shoot the Impostors</t>
+  </si>
+  <si>
+    <t>deputyshortdescription</t>
+  </si>
+  <si>
+    <t>Handcuff the Impostors</t>
+  </si>
+  <si>
+    <t>lightershortdescription</t>
+  </si>
+  <si>
+    <t>godfathershortdescription</t>
+  </si>
+  <si>
+    <t>mafiososhortdescription</t>
+  </si>
+  <si>
+    <t>janitorshortdescription</t>
+  </si>
+  <si>
+    <t>Hide dead bodies</t>
+  </si>
+  <si>
+    <t>morphlingshortdescription</t>
+  </si>
+  <si>
+    <t>Change your look</t>
+  </si>
+  <si>
+    <t>camouflagershortdescription</t>
+  </si>
+  <si>
+    <t>Hide among others</t>
+  </si>
+  <si>
+    <t>evilhackershortdescription</t>
+  </si>
+  <si>
+    <t>Hack to kill the Crewmates</t>
+  </si>
+  <si>
+    <t>vampireshortdescription</t>
+  </si>
+  <si>
+    <t>Bite your enemies</t>
+  </si>
+  <si>
+    <t>erasershortdescription</t>
+  </si>
+  <si>
+    <t>Erase the roles of your enemies</t>
+  </si>
+  <si>
+    <t>trickstershortdescription</t>
+  </si>
+  <si>
+    <t>Surprise your enemies</t>
+  </si>
+  <si>
+    <t>cleanershortdescription</t>
+  </si>
+  <si>
+    <t>Clean up dead bodies</t>
+  </si>
+  <si>
+    <t>warlockshortdescription</t>
+  </si>
+  <si>
+    <t>Curse and kill everyone</t>
+  </si>
+  <si>
+    <t>bountyhuntershortdescription</t>
+  </si>
+  <si>
+    <t>detectiveshortdescription</t>
+  </si>
+  <si>
+    <t>Examine footprints</t>
+  </si>
+  <si>
+    <t>timemastershortdescription</t>
+  </si>
+  <si>
+    <t>Use your time shield</t>
+  </si>
+  <si>
+    <t>medicshortdescription</t>
+  </si>
+  <si>
+    <t>Protect other players</t>
+  </si>
+  <si>
+    <t>shiftershortdescription</t>
+  </si>
+  <si>
+    <t>swappershortdescription</t>
+  </si>
+  <si>
+    <t>Swap votes</t>
+  </si>
+  <si>
+    <t>seershortdescription</t>
+  </si>
+  <si>
+    <t>hackershortdescription</t>
+  </si>
+  <si>
+    <t>Hack to find the Impostors</t>
+  </si>
+  <si>
+    <t>trackershortdescription</t>
+  </si>
+  <si>
+    <t>Track the Impostors down</t>
+  </si>
+  <si>
+    <t>snitchshortdescription</t>
+  </si>
+  <si>
+    <t>Finish your tasks</t>
+  </si>
+  <si>
+    <t>jackalshortdescription</t>
+  </si>
+  <si>
+    <t>Kill everyone</t>
+  </si>
+  <si>
+    <t>sidekickshortdescription</t>
+  </si>
+  <si>
+    <t>spyshortdescription</t>
+  </si>
+  <si>
+    <t>Confuse the Impostors</t>
+  </si>
+  <si>
+    <t>security guardshortdescription</t>
+  </si>
+  <si>
+    <t>arsonistshortdescription</t>
+  </si>
+  <si>
+    <t>niceguessershortdescription</t>
+  </si>
+  <si>
+    <t>evilguessershortdescription</t>
+  </si>
+  <si>
+    <t>vultureshortdescription</t>
+  </si>
+  <si>
+    <t>Eat dead bodies</t>
+  </si>
+  <si>
+    <t>mediumshortdescription</t>
+  </si>
+  <si>
+    <t>Question the souls</t>
+  </si>
+  <si>
+    <t>madmateshortdescription</t>
+  </si>
+  <si>
+    <t>Help the Impostors</t>
+  </si>
+  <si>
+    <t>lawyershortdescription</t>
+  </si>
+  <si>
+    <t>pursuershortdescription</t>
+  </si>
+  <si>
+    <t>impostorshortdescription</t>
+  </si>
+  <si>
+    <t>crewmateshortdescription</t>
+  </si>
+  <si>
+    <t>witchshortdescription</t>
+  </si>
+  <si>
+    <t>ninjashortdescription</t>
+  </si>
+  <si>
+    <t>yasunashortdescription</t>
+  </si>
+  <si>
+    <t>evilyasunashortdescription</t>
+  </si>
+  <si>
+    <t>taskmastershortdescription</t>
+  </si>
+  <si>
+    <t>doorhackershortdescription</t>
+  </si>
+  <si>
+    <t>kataomoishortdescription</t>
+  </si>
+  <si>
+    <t>killercreatorshortdescription</t>
+  </si>
+  <si>
+    <t>madmatekillershortdescription</t>
+  </si>
+  <si>
+    <t>taskracershortdescription</t>
+  </si>
+  <si>
+    <t>bloodyshortdescription</t>
+  </si>
+  <si>
+    <t>antitpshortdescription</t>
+  </si>
+  <si>
+    <t>tiebreakershortdescription</t>
+  </si>
+  <si>
+    <t>Break the tie</t>
+  </si>
+  <si>
+    <t>baitshortdescription</t>
+  </si>
+  <si>
+    <t>sunglassesshortdescription</t>
+  </si>
+  <si>
+    <t>Your vision is reduced</t>
+  </si>
+  <si>
+    <t>lovershortdescription</t>
+  </si>
+  <si>
+    <t>minishortdescription</t>
+  </si>
+  <si>
+    <t>No one will harm you</t>
+  </si>
+  <si>
+    <t>vipshortdescription</t>
+  </si>
+  <si>
+    <t>Everyone is notified when you die</t>
+  </si>
+  <si>
+    <t>invertshortdescription</t>
+  </si>
+  <si>
+    <t>preset</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -47,13 +1344,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -190,23 +1506,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="67000"/>
+                <a:satMod val="105000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:tint val="73000"/>
+                <a:satMod val="103000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="81000"/>
+                <a:satMod val="109000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -216,23 +1532,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
                 <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="78000"/>
+                <a:satMod val="120000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -294,16 +1610,16 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:shade val="98000"/>
                 <a:satMod val="150000"/>
-                <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:shade val="90000"/>
                 <a:satMod val="130000"/>
-                <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
@@ -330,13 +1646,1805 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="36" customWidth="1"/>
+    <col min="16" max="17" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5">
+      <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5">
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5">
+      <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5">
+      <c r="A17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5">
+      <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16.5">
+      <c r="A19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.5">
+      <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16.5">
+      <c r="A21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16.5">
+      <c r="A22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16.5">
+      <c r="A23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5">
+      <c r="A24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.5">
+      <c r="A26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16.5">
+      <c r="A27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="16.5">
+      <c r="A28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16.5">
+      <c r="A29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="16.5">
+      <c r="A30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="16.5">
+      <c r="A31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="16.5">
+      <c r="A32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16.5">
+      <c r="A33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="16.5">
+      <c r="A34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="16.5">
+      <c r="A35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16.5">
+      <c r="A36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="16.5">
+      <c r="A37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="16.5">
+      <c r="A38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="16.5">
+      <c r="A39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="16.5">
+      <c r="A40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="16.5">
+      <c r="A41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="16.5">
+      <c r="A42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="16.5">
+      <c r="A43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="16.5">
+      <c r="A44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="16.5">
+      <c r="A45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="16.5">
+      <c r="A46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="16.5">
+      <c r="A47" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="16.5">
+      <c r="A48" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="16.5">
+      <c r="A49" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="16.5">
+      <c r="A50" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="16.5">
+      <c r="A51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="16.5">
+      <c r="A52" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="16.5">
+      <c r="A53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="16.5">
+      <c r="A54" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="16.5">
+      <c r="A55" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="16.5">
+      <c r="A56" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="16.5">
+      <c r="A57" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="16.5">
+      <c r="A58" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="16.5">
+      <c r="A59" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="16.5">
+      <c r="A60" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="16.5">
+      <c r="A61" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="16.5">
+      <c r="A62" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="16.5">
+      <c r="A63" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="B185" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4900F2E4-8D85-493B-A4BC-706C93D03FD6}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>